--- a/tools/工具列表.xlsx
+++ b/tools/工具列表.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="java" sheetId="1" r:id="rId1"/>
     <sheet name="js" sheetId="2" r:id="rId2"/>
+    <sheet name="工具" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,7 +136,66 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FastJson</t>
+    <t xml:space="preserve">可视化HTML编辑器 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CKEditor+KCFinder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>构建高效率的即时通信服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenFire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guava</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Google的java库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTTP 协议的客户端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POJO之间进行复制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嵌入式数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FastJson
+jackson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpyMemcached</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jedis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dozer
+BeanUtils
+PropertyUtils</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HttpComponents</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -188,7 +248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -198,6 +258,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -504,13 +565,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="19.25" customWidth="1"/>
+    <col min="1" max="1" width="19.25" customWidth="1"/>
+    <col min="2" max="2" width="34.125" customWidth="1"/>
+    <col min="3" max="3" width="19.25" customWidth="1"/>
     <col min="4" max="4" width="81.625" customWidth="1"/>
     <col min="5" max="5" width="52.875" customWidth="1"/>
   </cols>
@@ -582,12 +645,46 @@
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
@@ -627,7 +724,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B1" t="s">
@@ -638,7 +735,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="3"/>
+      <c r="A2" s="5"/>
       <c r="B2" t="s">
         <v>19</v>
       </c>
@@ -647,7 +744,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="3"/>
+      <c r="A3" s="5"/>
       <c r="B3" t="s">
         <v>20</v>
       </c>
@@ -656,7 +753,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="3"/>
+      <c r="A4" s="5"/>
       <c r="B4" t="s">
         <v>21</v>
       </c>
@@ -672,4 +769,49 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
 </file>
--- a/tools/工具列表.xlsx
+++ b/tools/工具列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="java" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -27,10 +27,6 @@
   </si>
   <si>
     <t>包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FileUtils</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -196,6 +192,64 @@
   </si>
   <si>
     <t>HttpComponents</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解析XML</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xstream
+digestor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FileUtils
+IOUtils</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESTfull WebServices</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Druid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Thumbnailator </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成缩略图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯Javascript图表库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Echarts/Highcharts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SoapUI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个开源测试工具，通过soap/http来检查、调用、实现Web Service的功能/负载/符合性测试。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代替SOAP的方案(cxf|jersey)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -563,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:D10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -580,7 +634,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -592,110 +646,126 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="D16" t="s">
-        <v>26</v>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -710,55 +780,68 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
         <v>16</v>
-      </c>
-      <c r="B1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="5"/>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="5"/>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="5"/>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -773,40 +856,64 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="89.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
         <v>37</v>
       </c>
-      <c r="B3" t="s">
-        <v>38</v>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
